--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed5/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.011200000000002</v>
+        <v>-8.703100000000004</v>
       </c>
       <c r="E3" t="n">
-        <v>15.6248</v>
+        <v>15.62760000000001</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.935499999999997</v>
+        <v>4.902099999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.495400000000002</v>
+        <v>-7.566299999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.261</v>
+        <v>16.42109999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.23910000000001</v>
+        <v>17.07920000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.693100000000008</v>
+        <v>-8.606600000000009</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.216600000000004</v>
+        <v>5.876400000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.7395</v>
+        <v>15.70640000000001</v>
       </c>
     </row>
     <row r="31">
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.919599999999997</v>
+        <v>-8.782799999999998</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.6623</v>
+        <v>6.605100000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.4635</v>
+        <v>-8.617800000000003</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.235900000000001</v>
+        <v>9.341500000000003</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.8579</v>
+        <v>-7.8175</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.613</v>
+        <v>4.8209</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.20469999999999</v>
+        <v>16.2783</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.457099999999997</v>
+        <v>-7.5367</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.852300000000007</v>
+        <v>6.997800000000004</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.0961</v>
+        <v>16.04819999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.606499999999996</v>
+        <v>-7.729199999999995</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.809899999999996</v>
+        <v>5.050299999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.397099999999997</v>
+        <v>5.291499999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.1026</v>
+        <v>5.136099999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.536800000000003</v>
+        <v>-8.584899999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.84589999999999</v>
+        <v>16.7531</v>
       </c>
     </row>
     <row r="59">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.8461</v>
+        <v>5.789400000000003</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.226999999999999</v>
+        <v>5.178499999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.130500000000001</v>
+        <v>4.991100000000004</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.59160000000002</v>
+        <v>16.64260000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.190799999999997</v>
+        <v>-7.123799999999996</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.054699999999997</v>
+        <v>5.389899999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.109799999999996</v>
+        <v>-9.162399999999995</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.4314</v>
+        <v>16.3805</v>
       </c>
     </row>
     <row r="85">
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.953300000000001</v>
+        <v>4.897600000000005</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.26180000000002</v>
+        <v>17.34380000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.6503</v>
+        <v>5.823800000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.06020000000002</v>
+        <v>17.99540000000001</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.05640000000002</v>
+        <v>18.05320000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.102600000000004</v>
+        <v>6.135100000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.27599999999999</v>
+        <v>15.47099999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.449299999999998</v>
+        <v>4.798399999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.195100000000002</v>
+        <v>-8.633900000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.855000000000003</v>
+        <v>-7.666799999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>16.5121</v>
+        <v>16.54859999999999</v>
       </c>
     </row>
   </sheetData>
